--- a/columnmapping.xlsx
+++ b/columnmapping.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12460" activeTab="3"/>
+    <workbookView windowHeight="15880" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
     <sheet name="Subscriptions" sheetId="2" r:id="rId2"/>
     <sheet name="Invoices" sheetId="3" r:id="rId3"/>
     <sheet name="Invoices1" sheetId="5" r:id="rId4"/>
+    <sheet name="LineItemMergeHelper" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Invoices!$A$1:$C$87</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="292">
   <si>
     <t>DS2</t>
   </si>
@@ -863,6 +864,39 @@
   </si>
   <si>
     <t>discounts_entity_id[0]</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>listcoltomerge</t>
+  </si>
+  <si>
+    <t>sorting_strings_List</t>
+  </si>
+  <si>
+    <t>item_item_price_id[0]</t>
+  </si>
+  <si>
+    <t>https://arraythis.com/</t>
+  </si>
+  <si>
+    <t>item_item_price_id[1]</t>
+  </si>
+  <si>
+    <t>item_item_price_id[2]</t>
+  </si>
+  <si>
+    <t>item_item_price_id[3]</t>
+  </si>
+  <si>
+    <t>item_item_price_id[4]</t>
+  </si>
+  <si>
+    <t>item_item_price_id[5]</t>
+  </si>
+  <si>
+    <t>item_item_price_id[6]</t>
   </si>
 </sst>
 </file>
@@ -872,15 +906,30 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8"/>
+      <color rgb="FF080808"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -907,33 +956,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,11 +979,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -969,37 +1041,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1007,16 +1048,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,7 +1098,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,49 +1152,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,36 +1182,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1171,13 +1194,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,7 +1212,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,31 +1236,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,11 +1319,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,32 +1384,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1336,179 +1392,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1538,39 +1588,39 @@
     <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
     <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1846,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1862,13 +1912,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2062,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -2077,13 +2127,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2499,7 +2549,7 @@
       <c r="A36" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C36" t="str">
@@ -2517,7 +2567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C87"/>
   <sheetViews>
@@ -2528,18 +2578,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="49.3125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2547,7 +2597,7 @@
       <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C2" t="str">
@@ -2559,7 +2609,7 @@
       <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C3" t="str">
@@ -2571,7 +2621,7 @@
       <c r="A4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C4" t="str">
@@ -2583,7 +2633,7 @@
       <c r="A5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C5" t="str">
@@ -2595,7 +2645,7 @@
       <c r="A6" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C6" t="str">
@@ -2607,7 +2657,7 @@
       <c r="A7" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C7" t="str">
@@ -2619,7 +2669,7 @@
       <c r="A8" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C8" t="str">
@@ -2631,7 +2681,7 @@
       <c r="A9" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C9" t="str">
@@ -2643,7 +2693,7 @@
       <c r="A10" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C10" t="str">
@@ -2655,7 +2705,7 @@
       <c r="A11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C11" t="str">
@@ -2667,7 +2717,7 @@
       <c r="A12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C12" t="str">
@@ -2679,7 +2729,7 @@
       <c r="A13" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C13" t="str">
@@ -2691,7 +2741,7 @@
       <c r="A14" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C14" t="str">
@@ -2703,7 +2753,7 @@
       <c r="A15" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C15" t="str">
@@ -2715,7 +2765,7 @@
       <c r="A16" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C16" t="str">
@@ -2727,7 +2777,7 @@
       <c r="A17" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C17" t="str">
@@ -2739,7 +2789,7 @@
       <c r="A18" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C18" t="str">
@@ -2751,7 +2801,7 @@
       <c r="A19" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C19" t="str">
@@ -2763,7 +2813,7 @@
       <c r="A20" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>138</v>
       </c>
       <c r="C20" t="str">
@@ -2775,7 +2825,7 @@
       <c r="A21" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C21" t="str">
@@ -2787,7 +2837,7 @@
       <c r="A22" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>142</v>
       </c>
       <c r="C22" t="str">
@@ -2799,7 +2849,7 @@
       <c r="A23" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C23" t="str">
@@ -2811,7 +2861,7 @@
       <c r="A24" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C24" t="str">
@@ -2823,7 +2873,7 @@
       <c r="A25" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>148</v>
       </c>
       <c r="C25" t="str">
@@ -2835,7 +2885,7 @@
       <c r="A26" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C26" t="str">
@@ -2847,7 +2897,7 @@
       <c r="A27" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C27" t="str">
@@ -2859,7 +2909,7 @@
       <c r="A28" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C28" t="str">
@@ -2871,7 +2921,7 @@
       <c r="A29" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C29" t="str">
@@ -2883,7 +2933,7 @@
       <c r="A30" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C30" t="str">
@@ -2895,7 +2945,7 @@
       <c r="A31" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C31" t="str">
@@ -2907,7 +2957,7 @@
       <c r="A32" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C32" t="str">
@@ -2919,7 +2969,7 @@
       <c r="A33" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C33" t="str">
@@ -2931,7 +2981,7 @@
       <c r="A34" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C34" t="str">
@@ -2943,7 +2993,7 @@
       <c r="A35" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C35" t="str">
@@ -2955,7 +3005,7 @@
       <c r="A36" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C36" t="str">
@@ -2967,7 +3017,7 @@
       <c r="A37" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>172</v>
       </c>
       <c r="C37" t="str">
@@ -2979,7 +3029,7 @@
       <c r="A38" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C38" t="str">
@@ -2991,7 +3041,7 @@
       <c r="A39" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C39" t="str">
@@ -3003,7 +3053,7 @@
       <c r="A40" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C40" t="str">
@@ -3015,7 +3065,7 @@
       <c r="A41" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C41" t="str">
@@ -3027,7 +3077,7 @@
       <c r="A42" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="7" t="s">
         <v>182</v>
       </c>
       <c r="C42" t="str">
@@ -3039,7 +3089,7 @@
       <c r="A43" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="7" t="s">
         <v>184</v>
       </c>
       <c r="C43" t="str">
@@ -3051,7 +3101,7 @@
       <c r="A44" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C44" t="str">
@@ -3063,7 +3113,7 @@
       <c r="A45" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="7" t="s">
         <v>188</v>
       </c>
       <c r="C45" t="str">
@@ -3075,7 +3125,7 @@
       <c r="A46" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C46" t="str">
@@ -3087,7 +3137,7 @@
       <c r="A47" t="s">
         <v>191</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C47" t="str">
@@ -3099,7 +3149,7 @@
       <c r="A48" t="s">
         <v>193</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="7" t="s">
         <v>194</v>
       </c>
       <c r="C48" t="str">
@@ -3111,7 +3161,7 @@
       <c r="A49" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="7" t="s">
         <v>196</v>
       </c>
       <c r="C49" t="str">
@@ -3123,7 +3173,7 @@
       <c r="A50" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C50" t="str">
@@ -3135,7 +3185,7 @@
       <c r="A51" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="7" t="s">
         <v>200</v>
       </c>
       <c r="C51" t="str">
@@ -3147,7 +3197,7 @@
       <c r="A52" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="7" t="s">
         <v>202</v>
       </c>
       <c r="C52" t="str">
@@ -3159,7 +3209,7 @@
       <c r="A53" t="s">
         <v>203</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C53" t="str">
@@ -3171,7 +3221,7 @@
       <c r="A54" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="7" t="s">
         <v>206</v>
       </c>
       <c r="C54" t="str">
@@ -3183,7 +3233,7 @@
       <c r="A55" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="7" t="s">
         <v>208</v>
       </c>
       <c r="C55" t="str">
@@ -3195,7 +3245,7 @@
       <c r="A56" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="7" t="s">
         <v>210</v>
       </c>
       <c r="C56" t="str">
@@ -3207,7 +3257,7 @@
       <c r="A57" t="s">
         <v>211</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="7" t="s">
         <v>212</v>
       </c>
       <c r="C57" t="str">
@@ -3219,7 +3269,7 @@
       <c r="A58" t="s">
         <v>213</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="7" t="s">
         <v>214</v>
       </c>
       <c r="C58" t="str">
@@ -3231,7 +3281,7 @@
       <c r="A59" t="s">
         <v>215</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C59" t="str">
@@ -3243,7 +3293,7 @@
       <c r="A60" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C60" t="str">
@@ -3255,7 +3305,7 @@
       <c r="A61" t="s">
         <v>219</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C61" t="str">
@@ -3267,7 +3317,7 @@
       <c r="A62" t="s">
         <v>221</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="7" t="s">
         <v>222</v>
       </c>
       <c r="C62" t="str">
@@ -3279,7 +3329,7 @@
       <c r="A63" t="s">
         <v>223</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="7" t="s">
         <v>224</v>
       </c>
       <c r="C63" t="str">
@@ -3291,7 +3341,7 @@
       <c r="A64" t="s">
         <v>225</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="7" t="s">
         <v>226</v>
       </c>
       <c r="C64" t="str">
@@ -3303,7 +3353,7 @@
       <c r="A65" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="7" t="s">
         <v>228</v>
       </c>
       <c r="C65" t="str">
@@ -3315,7 +3365,7 @@
       <c r="A66" t="s">
         <v>229</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C66" t="str">
@@ -3327,7 +3377,7 @@
       <c r="A67" t="s">
         <v>231</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C67" t="str">
@@ -3339,7 +3389,7 @@
       <c r="A68" t="s">
         <v>233</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="7" t="s">
         <v>234</v>
       </c>
       <c r="C68" t="str">
@@ -3351,7 +3401,7 @@
       <c r="A69" t="s">
         <v>235</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C69" t="str">
@@ -3363,7 +3413,7 @@
       <c r="A70" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="7" t="s">
         <v>238</v>
       </c>
       <c r="C70" t="str">
@@ -3375,7 +3425,7 @@
       <c r="A71" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="7" t="s">
         <v>240</v>
       </c>
       <c r="C71" t="str">
@@ -3387,7 +3437,7 @@
       <c r="A72" t="s">
         <v>241</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="7" t="s">
         <v>242</v>
       </c>
       <c r="C72" t="str">
@@ -3399,7 +3449,7 @@
       <c r="A73" t="s">
         <v>243</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="7" t="s">
         <v>244</v>
       </c>
       <c r="C73" t="str">
@@ -3411,7 +3461,7 @@
       <c r="A74" t="s">
         <v>245</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="7" t="s">
         <v>246</v>
       </c>
       <c r="C74" t="str">
@@ -3423,7 +3473,7 @@
       <c r="A75" t="s">
         <v>247</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="7" t="s">
         <v>248</v>
       </c>
       <c r="C75" t="str">
@@ -3435,7 +3485,7 @@
       <c r="A76" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="7" t="s">
         <v>250</v>
       </c>
       <c r="C76" t="str">
@@ -3447,7 +3497,7 @@
       <c r="A77" t="s">
         <v>251</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="7" t="s">
         <v>252</v>
       </c>
       <c r="C77" t="str">
@@ -3459,7 +3509,7 @@
       <c r="A78" t="s">
         <v>253</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="7" t="s">
         <v>254</v>
       </c>
       <c r="C78" t="str">
@@ -3471,7 +3521,7 @@
       <c r="A79" t="s">
         <v>255</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="7" t="s">
         <v>256</v>
       </c>
       <c r="C79" t="str">
@@ -3483,7 +3533,7 @@
       <c r="A80" t="s">
         <v>257</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="7" t="s">
         <v>258</v>
       </c>
       <c r="C80" t="str">
@@ -3495,7 +3545,7 @@
       <c r="A81" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="7" t="s">
         <v>260</v>
       </c>
       <c r="C81" t="str">
@@ -3507,7 +3557,7 @@
       <c r="A82" t="s">
         <v>261</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="7" t="s">
         <v>262</v>
       </c>
       <c r="C82" t="str">
@@ -3519,7 +3569,7 @@
       <c r="A83" t="s">
         <v>263</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="7" t="s">
         <v>264</v>
       </c>
       <c r="C83" t="str">
@@ -3531,7 +3581,7 @@
       <c r="A84" t="s">
         <v>265</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="7" t="s">
         <v>266</v>
       </c>
       <c r="C84" t="str">
@@ -3543,7 +3593,7 @@
       <c r="A85" t="s">
         <v>267</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="7" t="s">
         <v>268</v>
       </c>
       <c r="C85" t="str">
@@ -3555,7 +3605,7 @@
       <c r="A86" t="s">
         <v>269</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="7" t="s">
         <v>270</v>
       </c>
       <c r="C86" t="str">
@@ -3567,7 +3617,7 @@
       <c r="A87" t="s">
         <v>271</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="7" t="s">
         <v>272</v>
       </c>
       <c r="C87" t="str">
@@ -3576,7 +3626,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C87"/>
+  <autoFilter ref="A1:C87">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="A2:A88">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
@@ -3589,988 +3641,988 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="50.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="4" t="str">
         <f t="shared" ref="C2:C65" si="0">"- """&amp;A2&amp;" : "&amp;B2&amp;""""</f>
         <v>- "invoice[id] : invoice_id"</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "invoice[customer_id] : invoice_customer_id"</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "invoice[subscription_id] : invoice_subscription_id"</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "invoice[status] : invoice_status"</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "invoice[date] : invoice_date"</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "invoice[total] : invoice_total"</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "payments[amount][0] : payments_txn_amount[0]"</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "payments[date][0] : payments_txn_date[0]"</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_type][0] : line_item_entity_type[0]"</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_id][0] : line_item_entity_id[0]"</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[description][0] : line_item_description[0]"</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_from][0] : line_item_date_from[0]"</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_to][0] : line_item_date_to[0]"</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[amount][0] : line_item_amount[0]"</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_type][1] : line_item_entity_type[1]"</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_id][1] : line_item_entity_id[1]"</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[description][1] : line_item_description[1]"</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_from][1] : line_item_date_from[1]"</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="1" t="str">
+      <c r="C20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_to][1] : line_item_date_to[1]"</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[quantity][1] : line_item_quantity[1]"</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="1" t="str">
+      <c r="C22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[unit_amount][1] : line_item_unit_amount[1]"</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_type][2] : line_item_entity_type[2]"</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_id][2] : line_item_entity_id[2]"</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[description][2] : line_item_description[2]"</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_from][2] : line_item_date_from[2]"</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_to][2] : line_item_date_to[2]"</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[quantity][2] : line_item_quantity[2]"</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[unit_amount][2] : line_item_unit_amount[2]"</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_type][3] : line_item_entity_type[3]"</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="1" t="str">
+      <c r="C31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_id][3] : line_item_entity_id[3]"</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="1" t="str">
+      <c r="C32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[description][3] : line_item_description[3]"</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="1" t="str">
+      <c r="C33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_from][3] : line_item_date_from[3]"</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="1" t="str">
+      <c r="C34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_to][3] : line_item_date_to[3]"</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="1" t="str">
+      <c r="C35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[quantity][3] : line_item_quantity[3]"</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="1" t="str">
+      <c r="C36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[unit_amount][3] : line_item_unit_amount[3]"</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="1" t="str">
+      <c r="C37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_type][4] : line_item_entity_type[4]"</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="1" t="str">
+      <c r="C38" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_id][4] : line_item_entity_id[4]"</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="1" t="str">
+      <c r="C39" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[description][4] : line_item_description[4]"</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C40" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_from][4] : line_item_date_from[4]"</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C41" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_to][4] : line_item_date_to[4]"</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C42" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[quantity][4] : line_item_quantity[4]"</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C43" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[unit_amount][4] : line_item_unit_amount[4]"</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C44" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_type][5] : line_item_entity_type[5]"</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C45" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_id][5] : line_item_entity_id[5]"</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C46" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[description][5] : line_item_description[5]"</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C47" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_from][5] : line_item_date_from[5]"</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C48" s="1" t="str">
+      <c r="C48" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_to][5] : line_item_date_to[5]"</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C49" s="1" t="str">
+      <c r="C49" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[quantity][5] : line_item_quantity[5]"</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="1" t="str">
+      <c r="C50" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[unit_amount][5] : line_item_unit_amount[5]"</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C51" s="1" t="str">
+      <c r="C51" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_type][6] : line_item_entity_type[6]"</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C52" s="1" t="str">
+      <c r="C52" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_id][6] : line_item_entity_id[6]"</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="1" t="str">
+      <c r="C53" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[description][6] : line_item_description[6]"</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C54" s="1" t="str">
+      <c r="C54" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_from][6] : line_item_date_from[6]"</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C55" s="1" t="str">
+      <c r="C55" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_to][6] : line_item_date_to[6]"</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="1" t="str">
+      <c r="C56" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[quantity][6] : line_item_quantity[6]"</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C57" s="1" t="str">
+      <c r="C57" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[unit_amount][6] : line_item_unit_amount[6]"</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C58" s="1" t="str">
+      <c r="C58" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_type][7] : line_item_entity_type[7]"</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C59" s="1" t="str">
+      <c r="C59" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_id][7] : line_item_entity_id[7]"</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="1" t="str">
+      <c r="C60" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[description][7] : line_item_description[7]"</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C61" s="1" t="str">
+      <c r="C61" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_from][7] : line_item_date_from[7]"</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="1" t="str">
+      <c r="C62" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[date_to][7] : line_item_date_to[7]"</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C63" s="1" t="str">
+      <c r="C63" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[quantity][7] : line_item_quantity[7]"</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C64" s="1" t="str">
+      <c r="C64" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[unit_amount][7] : line_item_unit_amount[7]"</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C65" s="1" t="str">
+      <c r="C65" s="4" t="str">
         <f t="shared" si="0"/>
         <v>- "line_items[entity_type][8] : line_item_entity_type[8]"</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C66" s="1" t="str">
+      <c r="C66" s="4" t="str">
         <f t="shared" ref="C66:C81" si="1">"- """&amp;A66&amp;" : "&amp;B66&amp;""""</f>
         <v>- "line_items[entity_id][8] : line_item_entity_id[8]"</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C67" s="1" t="str">
+      <c r="C67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[description][8] : line_item_description[8]"</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C68" s="1" t="str">
+      <c r="C68" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[date_from][8] : line_item_date_from[8]"</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C69" s="1" t="str">
+      <c r="C69" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[date_to][8] : line_item_date_to[8]"</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="1" t="str">
+      <c r="C70" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[quantity][8] : line_item_quantity[8]"</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C71" s="1" t="str">
+      <c r="C71" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[unit_amount][8] : line_item_unit_amount[8]"</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="1" t="str">
+      <c r="C72" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[entity_type][9] : line_item_entity_type[9]"</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="1" t="str">
+      <c r="C73" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[entity_id][9] : line_item_entity_id[9]"</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="1" t="str">
+      <c r="C74" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[description][9] : line_item_description[9]"</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="1" t="str">
+      <c r="C75" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[date_from][9] : line_item_date_from[9]"</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="1" t="str">
+      <c r="C76" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[date_to][9] : line_item_date_to[9]"</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="1" t="str">
+      <c r="C77" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[quantity][9] : line_item_quantity[9]"</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C78" s="1" t="str">
+      <c r="C78" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "line_items[unit_amount][9] : line_item_unit_amount[9]"</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C79" s="1" t="str">
+      <c r="C79" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "discounts[entity_type][0] : discounts_discount_type[0]"</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C80" s="1" t="str">
+      <c r="C80" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "discounts[amount][0] : discounts_discount_amount[0]"</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C81" s="1" t="str">
+      <c r="C81" s="4" t="str">
         <f t="shared" si="1"/>
         <v>- "discounts[entity_id][0] : discounts_entity_id[0]"</v>
       </c>
@@ -4585,4 +4637,128 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="30.71875" customWidth="1"/>
+    <col min="3" max="3" width="25.1875" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>"str(x['"&amp;A2&amp;"'])"</f>
+        <v>str(x['item_item_price_id[0]'])</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C8" si="0">"str(x['"&amp;A3&amp;"'])"</f>
+        <v>str(x['item_item_price_id[1]'])</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>str(x['item_item_price_id[2]'])</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>str(x['item_item_price_id[3]'])</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>str(x['item_item_price_id[4]'])</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>str(x['item_item_price_id[5]'])</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>str(x['item_item_price_id[6]'])</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://arraythis.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>